--- a/region inndeling.xlsx
+++ b/region inndeling.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3097C358-D012-49BA-B44C-60FEF2D05223}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{54BC9040-20AF-4006-8EB5-F6E602A6F289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9FF9B84-40C5-4CEE-A61A-61CBA3268E01}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11325" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="95">
   <si>
     <t>Fosen</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Værnesregionen</t>
+  </si>
+  <si>
+    <t>Oslo</t>
   </si>
 </sst>
 </file>
@@ -5676,10 +5679,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E8CA3-E219-47F9-B5AA-6347C6CE1D12}">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,6 +9415,14 @@
       </c>
       <c r="D266" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>94</v>
+      </c>
+      <c r="D267" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -13758,26 +13769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13978,7 +13969,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MediaServiceMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFCF235-396D-47B1-BFB4-0126AF1A6DF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E585A2-6D82-4727-AA12-134431D11157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -13993,16 +14031,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429A24B6-8423-4FD9-BF22-1D1999BF11E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFCF235-396D-47B1-BFB4-0126AF1A6DF7}"/>
 </file>